--- a/biology/Biochimie/Lipoate-protéine_ligase/Lipoate-protéine_ligase.xlsx
+++ b/biology/Biochimie/Lipoate-protéine_ligase/Lipoate-protéine_ligase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lipoate-prot%C3%A9ine_ligase</t>
+          <t>Lipoate-protéine_ligase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une lipoate-protéine ligase est une ligase qui catalyse la réaction[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une lipoate-protéine ligase est une ligase qui catalyse la réaction :
 ATP + (R)-lipoate + L-lysine–protéine  
         ⇌
     {\displaystyle \rightleftharpoons }
-  N6-(lipoyl)lysine–protéine + AMP + pyrophosphate (réaction globale[2]) :
+  N6-(lipoyl)lysine–protéine + AMP + pyrophosphate (réaction globale) :
 ATP + (R)-lipoate  
         ⇌
     {\displaystyle \rightleftharpoons }
@@ -495,7 +507,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   N6-(lipoyl)lysine–protéine + AMP.
-Cette enzyme utilise le cation de magnésium Mg2+ comme cofacteur. Elle intervient dans la voie de sauvetage de l'acide lipoïque en permettant la lipoylation de certaines enzymes en présence d'acide lipoïque libre[3]. 
+Cette enzyme utilise le cation de magnésium Mg2+ comme cofacteur. Elle intervient dans la voie de sauvetage de l'acide lipoïque en permettant la lipoylation de certaines enzymes en présence d'acide lipoïque libre. 
 </t>
         </is>
       </c>
